--- a/biology/Botanique/Leontodon_pyrenaicus/Leontodon_pyrenaicus.xlsx
+++ b/biology/Botanique/Leontodon_pyrenaicus/Leontodon_pyrenaicus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Liondent des Pyrénées (Leontodon pyrenaicus) est une espèce de plante à fleurs de la famille des Asteraceae et du genre Leontodon.
 </t>
@@ -511,7 +523,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Liondent des Pyrénées se nomme Leòntodon pirinenc en catalan et Pyrenaeen-Löwenzahn en Allemand.
 </t>
@@ -542,7 +556,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Leontodon pyrenaicus Gouan, a pour synonymes 
 Apargia autumnalis (L.) Hoffm. var. gouanii Gaudin
@@ -576,7 +592,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Leontodon pyrenaicus se divise en trois sous-espèces à aires de répartition distinctes :
 Leontodon pyrenaicus subsp. cantabricus présent en Cantabrique
@@ -609,7 +627,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée vivace qui n'atteint que 10 à 30 cm de haut.
 Les feuilles toutes radicales (venant de la base), nettement pétiolées, sont oblongues lisses ou un peu velues.
@@ -642,7 +662,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Liondent des Pyrénées est une plante des pâturages de montagne.
 </t>
@@ -673,12 +695,14 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Liondent des Pyrénées est présent en Europe centrale et en Suisse.
-En France métropolitaine, le Liondent des Pyrénées est présent dans trois départements d'Alsace, huit dans le Massif Central et à l'est de celui-ci et six dans les Pyrénées[1].
+En France métropolitaine, le Liondent des Pyrénées est présent dans trois départements d'Alsace, huit dans le Massif Central et à l'est de celui-ci et six dans les Pyrénées.
 Suivant d'autres sources, il serait aussi présent dans l'ensemble des départements alpins de façon continue depuis le Massif central.
-Cela montre une forte régression au cours des âges car il a été présent depuis le paléolithique et des stations ont été retrouvées sur l'ensemble de la France métropolitaine[2].
+Cela montre une forte régression au cours des âges car il a été présent depuis le paléolithique et des stations ont été retrouvées sur l'ensemble de la France métropolitaine.
 </t>
         </is>
       </c>
